--- a/target/test-classes/easeMyTripFramework.xlsx
+++ b/target/test-classes/easeMyTripFramework.xlsx
@@ -2,24 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadap\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadap\Documents\workspace-spring-tool-suite-4-4.11.1.RELEASE\easyMyTrip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E0BEA7-6EBE-4C48-A00E-1FC8F5C78D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C961F8-81B9-4ABD-A7B7-A85FDD888B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4DD07F55-809D-4E10-AA1C-9C0232C70110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,12 +30,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>From city</t>
+  </si>
+  <si>
+    <t>To city</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -61,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -126,7 +151,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -159,26 +184,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -211,23 +219,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,24 +361,235 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615F93B1-760D-4401-BBD9-2A75DE700333}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Hai@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B82D3330BA5AA4A84E85E160EBB744E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa0eaa7768c905ab7c748e9764ea7ed">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="867cb0ce2fff07cd774b64e8a29c3965" ns3:_="">
+    <xsd:import namespace="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFF048D-139F-454F-94CC-6B25E6F7DFA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A21983B-8B92-4169-B585-534DE34130B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4A5F6A-B9E8-4509-96E5-CAB51D8EECAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/target/test-classes/easeMyTripFramework.xlsx
+++ b/target/test-classes/easeMyTripFramework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadap\Documents\workspace-spring-tool-suite-4-4.11.1.RELEASE\easyMyTrip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C961F8-81B9-4ABD-A7B7-A85FDD888B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3160CD-7A5C-4C7A-A43F-D07BDFEB2B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>HYD</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>To city</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>vadaparthysurendra@gmail.com</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>wrongmobilenumber</t>
+  </si>
+  <si>
+    <t>card  number</t>
+  </si>
+  <si>
+    <t>card holder name</t>
+  </si>
+  <si>
+    <t>Surendra</t>
+  </si>
+  <si>
+    <t>cvv</t>
   </si>
 </sst>
 </file>
@@ -87,9 +111,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,35 +393,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C2"/>
+  <dimension ref="B1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>9676238512</v>
+      </c>
+      <c r="F2">
+        <v>8756484</v>
+      </c>
+      <c r="G2">
+        <v>1111222233334440</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Hai@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{573C9198-F9EB-45EA-92B5-5099F39BC3EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/easeMyTripFramework.xlsx
+++ b/target/test-classes/easeMyTripFramework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadap\Documents\workspace-spring-tool-suite-4-4.11.1.RELEASE\easyMyTrip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3160CD-7A5C-4C7A-A43F-D07BDFEB2B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405D3E3-8BF3-4505-95CC-FD9D36DEA814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>HYD</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>cvv</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>MUM</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Vadaparthy</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
+    <t>indigo</t>
   </si>
 </sst>
 </file>
@@ -393,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I2"/>
+  <dimension ref="B1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,7 +426,7 @@
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -430,8 +451,17 @@
       <c r="I1" t="s">
         <v>11</v>
       </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="2:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,15 +485,57 @@
       </c>
       <c r="I2">
         <v>432</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>9676238512</v>
+      </c>
+      <c r="F3">
+        <v>8756484</v>
+      </c>
+      <c r="G3">
+        <v>1111222233334440</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>432</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Hai@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{573C9198-F9EB-45EA-92B5-5099F39BC3EE}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{B61FDE2E-5979-4D01-8378-B210DA55D96C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/easeMyTripFramework.xlsx
+++ b/target/test-classes/easeMyTripFramework.xlsx
@@ -3,35 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadap\Documents\workspace-spring-tool-suite-4-4.11.1.RELEASE\easyMyTrip\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D405D3E3-8BF3-4505-95CC-FD9D36DEA814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{853D22E5-A6F7-46CF-9758-0A71831A507B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19460" windowHeight="11060" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Flight " sheetId="1" r:id="rId1"/>
+    <sheet name="hotel place" sheetId="2" r:id="rId2"/>
+    <sheet name="Passenger Details" sheetId="3" r:id="rId3"/>
+    <sheet name="card details" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:M13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>HYD</t>
   </si>
@@ -45,46 +33,100 @@
     <t>To city</t>
   </si>
   <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>LnameAdult</t>
+  </si>
+  <si>
+    <t>FNameAdult</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Childlname</t>
+  </si>
+  <si>
+    <t>Childfname</t>
+  </si>
+  <si>
+    <t>Anushi</t>
+  </si>
+  <si>
+    <t>Bonuga</t>
+  </si>
+  <si>
+    <t>anushib2k@gmail.com</t>
+  </si>
+  <si>
+    <t>Rupali</t>
+  </si>
+  <si>
+    <t>Sahu</t>
+  </si>
+  <si>
+    <t>cardholdername</t>
+  </si>
+  <si>
+    <t>card number</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>682 2 2 2</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>wrongmobilenumber</t>
+  </si>
+  <si>
+    <t>card  number</t>
+  </si>
+  <si>
+    <t>card holder name</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>airlines</t>
+  </si>
+  <si>
     <t>vadaparthysurendra@gmail.com</t>
   </si>
   <si>
-    <t>mobilenumber</t>
-  </si>
-  <si>
-    <t>wrongmobilenumber</t>
-  </si>
-  <si>
-    <t>card  number</t>
-  </si>
-  <si>
-    <t>card holder name</t>
-  </si>
-  <si>
     <t>Surendra</t>
   </si>
   <si>
-    <t>cvv</t>
-  </si>
-  <si>
-    <t>BLR</t>
+    <t>Vadaparthy</t>
   </si>
   <si>
     <t>MUM</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Vadaparthy</t>
-  </si>
-  <si>
-    <t>airlines</t>
   </si>
   <si>
     <t>indigo</t>
@@ -132,7 +174,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -416,116 +460,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
         <v>9676238512</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>8756484</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>1111222233334440</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2">
         <v>432</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="2:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2">
         <v>9676238512</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>8756484</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>1111222233334440</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
         <v>432</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -535,26 +576,157 @@
     <hyperlink ref="D3" r:id="rId3" xr:uid="{B61FDE2E-5979-4D01-8378-B210DA55D96C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>9063182628</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>729872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B82D3330BA5AA4A84E85E160EBB744E" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa0eaa7768c905ab7c748e9764ea7ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="867cb0ce2fff07cd774b64e8a29c3965" ns3:_="">
     <xsd:import namespace="a0045b92-a0b2-41ab-8b2e-abb5d5de0a3d"/>
@@ -700,24 +872,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFF048D-139F-454F-94CC-6B25E6F7DFA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A21983B-8B92-4169-B585-534DE34130B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F4A5F6A-B9E8-4509-96E5-CAB51D8EECAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -733,4 +903,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A21983B-8B92-4169-B585-534DE34130B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCFF048D-139F-454F-94CC-6B25E6F7DFA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>